--- a/data/lng_sentiment_score_.xlsx
+++ b/data/lng_sentiment_score_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4662,6 +4662,575 @@
         <v>-0.5859</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://ca.finance.yahoo.com/news/utility-sempra-sell-stake-infrastructure-121903051.html</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-09-23T12:19:03Z</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sempra sells $10 billion stake in unit, greenlights Port Arthur expansion project</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>The stake sale to KKR, along with Canada Pension Plan Investment Board, implies an equity value of $22.2 billion for Sempra Infrastructure Partners, which...</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>(Reuters) -Sempra said on Tuesday it would sell a 45% stake in its infrastructure unit for $10 billion, and has approved a $14 billion expansion of Port Arthur LNG project in Texas, sending the utili… [+1808 chars]</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4215</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/u-oil-giants-bet-big-230000222.html</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Irina Slav</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-09-21T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>U.S. Oil Giants Bet Big On European LNG Trading Strategies</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>U.S. oil supermajors Exxon and Chevron are expanding their LNG trading operations, following the lead of European companies like Shell, TotalEnergies, BP...</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Most of the media coverage of Big Oil majors tends to draw comparisons between the European companies and their U.S. peers, almost invariably at the expense of the Europeans. Yet there is one sector … [+4808 chars]</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/kinder-morgan-kmi-great-dividend-020752013.html</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:07:52Z</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Kinder Morgan (KMI) – A Great Dividend Stock Amongst the LNG Boom</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. (NYSE:KMI) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Kinder Morgan, Inc. (NYSE:KMI), a company that...</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. (NYSE:KMI) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Kinder Morgan (KMI) - A Great Dividend Stock Amongst the LNG Boom
+Kinder Morgan, Inc. (NY… [+1545 chars]</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9812</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/australias-woodside-inks-lng-supply-081340769.html</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-09-24T08:13:40Z</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Australia's Woodside inks LNG supply deal with Turkey's BOTAS</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Australia's biggest natural gas producer has agreed to supply for a period of nine years starting from 2030, primarily from its Louisiana LNG project...</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>(Reuters) -Australia's Woodside Energy said on Wednesday it has clinched an agreement to supply about 5.8 billion cubic metres of liquefied natural gas, to Turkish state-owned petroleum company BOTAS… [+1290 chars]</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0.7783</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://sg.finance.yahoo.com/news/sri-lanka-says-no-immediate-062256726.html</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sethuraman N R</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-09-23T06:22:56Z</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sri Lanka says no immediate LNG imports from India as infrastructure lags</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NEW DELHI (Reuters) -Sri Lanka has no immediate plans to import liquefied natural gas (LNG) from India, as the required infrastructure including storage...</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>By Sethuraman N R
+NEW DELHI (Reuters) -Sri Lanka has no immediate plans to import liquefied natural gas (LNG) from India, as the required infrastructure including storage facilities is yet to be bui… [+1415 chars]</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.5266999999999999</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/u-lng-boom-faces-glut-220000748.html</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Tsvetana Paraskova</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-09-23T22:00:00Z</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>U.S. LNG Boom Faces Glut Risk by 2030</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>A wave of new LNG projects in the U.S. and Qatar could tip the global market into oversupply by 2030, driving prices lower and squeezing U.S. exporters...</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>The U.S. LNG export boom could soon face challenges by the end of the decade, both at home and on the international market.
+Huge export capacity additions, mostly in the United States and Qatar, are… [+4850 chars]</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0.5106000000000001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/utility-sempra-sell-stake-infrastructure-121903532.html</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-09-23T12:19:03Z</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Utility Sempra to sell stake in infrastructure platforms for $10 billion</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Electric and gas utility Sempra said on Tuesday it would sell a 45% equity interest in Sempra Infrastructure Partners to the affiliates of investment firm...</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>(Reuters) -Electric and gas utility Sempra said on Tuesday it would sell a 45% equity interest in Sempra Infrastructure Partners to the affiliates of investment firm KKR and Canada Pension Plan Inves… [+402 chars]</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4588</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-conocophillips-cop-among-top-020718925.html</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:07:18Z</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Why ConocoPhillips (COP) is Among the Top Oil and Gas Dividend Stocks</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>ConocoPhillips (NYSE:COP) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. With its deep, diverse, and durable portfolio...</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ConocoPhillips (NYSE:COP) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Why ConocoPhillips (COP) is Among the Top Oil and Gas Dividend Stocks 
+With its deep, diverse,… [+1670 chars]</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8519</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/iraq-looking-open-another-backdoor-230000623.html</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Simon Watkins</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-09-23T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Is Iraq Looking To Open Another Backdoor For Iran To Export Its Oil?</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Shared oilfields, document falsification, and ship-to-ship transfers have long enabled Iran to rebrand exports as Iraq.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Iraq has long been the key instrument through which Iran has been able to generate economy-supporting revenue from oil exports around the world, despite intense sanctions against it doing so. Last we… [+7559 chars]</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.0572</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.yahoo.com/news/articles/china-may-strengthen-climate-role-225111437.html</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Issam Ahmed and Ivan Couronne</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-09-23T01:07:29Z</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>China may strengthen climate role amid US fossil fuel push</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>All eyes are on China this week, as the world's biggest polluter readies a new emissions-cutting plan -- reinforcing its role as a steadfast defender of...</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>All eyes are on China this week, as the world's biggest polluter readies a new emissions-cutting plan -- reinforcing its role as a steadfast defender of global climate diplomacy while Europe stalls a… [+3190 chars]</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.2263</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-little-changed-traders-assess-011241698.html</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Anjana Anil</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-09-23T01:12:41Z</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Oil little changed as traders assess supply risks</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>(Reuters) -Oil prices were little changed on Tuesday as traders contemplated the impacts of ongoing geopolitical tensions in the Middle East and Russia...</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>By Anjana Anil
+(Reuters) -Oil prices were little changed on Tuesday as traders contemplated the impacts of ongoing geopolitical tensions in the Middle East and Russia, while worries over trade tarif… [+1931 chars]</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.765</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ifm-investors-increases-stake-eog-203605042.html</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Rameen Kasana</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-09-24T20:36:05Z</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>IFM Investors Increases Stake in EOG Resources, Inc. (EOG) as Shale Projects Advance</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>EOG Resources, Inc. (NYSE:EOG) is among the best safe stocks to buy now. According to the latest disclosure with the SEC, IFM Investors Pty Ltd raised its...</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>EOG Resources, Inc. (NYSE:EOG) is among the best safe stocks to buy now. According to the latest disclosure with the SEC, IFM Investors Pty Ltd raised its position in EOG Resources, Inc. (NYSE:EOG) b… [+1835 chars]</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/antero-midstream-nyse-am-announces-135435581.html</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Bob Karr</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-09-24T13:54:35Z</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Antero Midstream (NYSE:AM) Announces Pricing of Upsized Private Placement</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Antero Midstream Corporation (NYSE:AM) is one of the Best Undervalued Stocks to Invest in According to Reddit. On September 8, the company announced the...</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Antero Midstream Corporation (NYSE:AM) is one of the Best Undervalued Stocks to Invest in According to Reddit. On September 8, the company announced the pricing of an upsized private placement to eli… [+2059 chars]</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/eqt-corporation-eqt-announces-20-224219206.html</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Faheem Tahir</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-09-22T22:42:19Z</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>EQT Corporation (EQT) Announces 20-year Sale and Purchase Agreement with NextDecade Corporation</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>EQT Corporation (NYSE:EQT) is one of the Top 15 Stocks to Buy in 11 Different Sectors for the Next 3 Months. On September 3, 2025, EQT Corporation (NYSE:EQT)...</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>EQT Corporation (NYSE:EQT) is one of the Top 15 Stocks to Buy in 11 Different Sectors for the Next 3 Months.
+EQT Corporation (EQT) Announces 20-year Sale and Purchase Agreement with NextDecade Corpo… [+1286 chars]</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/equinor-wins-approval-launch-verdande-140000098.html</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Charles Kennedy</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-09-23T14:00:00Z</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Equinor Wins Approval to Launch Verdande at Norne Field</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Norway’s state-owned energy company Equinor has secured consent from the Norwegian Ocean Industry Authority (Havtil) to move forward with its Verdande...</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Norway’s state-owned energy company Equinor has secured consent from the Norwegian Ocean Industry Authority (Havtil) to move forward with its Verdande development at the Norne field in the Norwegian … [+1944 chars]</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9153</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/exclusive-exxon-signs-initial-agreement-150955818.html</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Anna Hirtenstein, Marwa Rashad and Sheila Dang</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-09-23T15:09:55Z</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Exclusive-Exxon signs initial agreement with Rosneft to chart possible path to recoup Russian losses, sources say</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>(Reuters) -U.S. oil major Exxon Mobil and Russian state-run energy giant Rosneft have signed a non-binding initial agreement to help Exxon recoup a $4.6...</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>By Anna Hirtenstein, Marwa Rashad and Sheila Dang
+(Reuters) -U.S. oil major Exxon Mobil and Russian state-run energy giant Rosneft have signed a non-binding initial agreement to help Exxon recoup a … [+3834 chars]</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/lng_sentiment_score_.xlsx
+++ b/data/lng_sentiment_score_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5231,6 +5231,381 @@
         <v>0.8176</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/record-low-canadian-natural-gas-153000827.html</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Michael Kern</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-09-26T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Record-Low Canadian Natural Gas Prices Prompt Production Curbs</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Canadian natural gas producers are curbing output due to record-low negative pricing at the AECO Hub, driven by a warmer winter, sufficient storage, and...</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Canadian producers are temporarily shutting in natural gas wellheads amid a record-low negative pricing at the key Alberta gas hub.
+The price of natural gas at the AECO Hub, the Canadian benchmark p… [+2122 chars]</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5106000000000001</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/fortress-energy-nfe-fell-week-160245342.html</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-09-26T16:02:45Z</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>New Fortress Energy (NFE) Fell This Week. Here is Why.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>The share price of New Fortress Energy Inc. (NASDAQ:NFE) fell by 7.79% between September 18 and September 25, 2025, putting it among the Energy Stocks that...</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>The share price of New Fortress Energy Inc. (NASDAQ:NFE) fell by 7.79% between September 18 and September 25, 2025, putting it among the Energy Stocks that Lost the Most This Week.
+New Fortress Ener… [+1418 chars]</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_937fc712-0caf-469b-a052-828f39fb937b</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-09-27T00:40:54Z</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Woodside Energy (WDS) Expected to Maintain up to 80% Interest in Louisiana LNG Project</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+714 chars]</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8225</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_f5fd2011-accd-4a90-a9fd-93b7da1d73cb</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-09-25T09:06:11Z</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Türkiye’s BOTAS signs 20-year deal with Mercuria to buy LNG from 2026</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+714 chars]</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5423</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/fortress-energy-nfe-continues-gain-042206179.html</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-09-25T04:22:06Z</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>New Fortress Energy (NFE) Continues to Gain Following Puerto Rico Agreement</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>The share price of New Fortress Energy Inc. (NASDAQ:NFE) surged by 23% between September 16 and September 23, 2025, putting it among the Energy Stocks that...</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>The share price of New Fortress Energy Inc. (NASDAQ:NFE) surged by 23% between September 16 and September 23, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+New Fortress En… [+1307 chars]</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9403</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/bp-postpones-oil-demand-peak-120123710.html</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Stephanie Kelly and Shadia Nasralla</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-09-25T12:01:23Z</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>BP postpones oil demand peak prediction to 2030 from 2025</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>BP said on Thursday it expects global oil demand to grow until 2030, five years later than its forecast a year ago, stressing slowed efforts to increase...</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>By Stephanie Kelly and Shadia Nasralla
+LONDON (Reuters) -BP said on Thursday it expects global oil demand to grow until 2030, five years later than its forecast a year ago, stressing slowed efforts … [+2389 chars]</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.6808</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/honeywell-international-inc-hon-raises-142640630.html</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Laiba Immad</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-09-26T14:26:40Z</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Honeywell International Inc. (HON) Raises $600M for Quantum Arm Quantinuum at $10B Valuation</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>In this article, we will be taking a look at the 13 Best Manufacturing Stocks to Buy Right Now. Honeywell International Inc. is one of them. Honeywell...</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>In this article, we will be taking a look at the13 Best Manufacturing Stocks to Buy Right Now. Honeywell International Inc. is one of them.
+Honeywell International Inc. (NASDAQ:HON), a global leader… [+2056 chars]</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/td-cowen-reaffirms-hold-totalenergies-205918112.html</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Rameen Kasana</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-09-24T20:59:18Z</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>TD Cowen Reaffirms Hold on TotalEnergies SE (TTE) Ahead of Investor Day</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>TotalEnergies SE (NYSE:TTE) is among the best safe stocks to buy now. TD Cowen has reaffirmed its ‘Hold’ rating on TotalEnergies SE (NYSE:TTE) with a price...</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>TotalEnergies SE (NYSE:TTE) is among the best safe stocks to buy now. TD Cowen has reaffirmed its Hold rating on TotalEnergies SE (NYSE:TTE) with a price target of $65.00, implying a potential upside… [+1535 chars]</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/canadian-natgas-producers-cut-output-100220246.html</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Amanda Stephenson and Scott DiSavino</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-09-26T10:02:20Z</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Canadian natgas producers cut output amid record low prices</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>(Reuters) -Some natural gas producers in Western Canada are aggressively cutting output in an effort to ease an ongoing glut that this week tipped prices for...</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>By Amanda Stephenson and Scott DiSavino
+(Reuters) -Some natural gas producers in Western Canada are aggressively cutting output in an effort to ease an ongoing glut that this week tipped prices for … [+2991 chars]</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-africa-largest-untapped-oil-230000535.html</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Natalia Katona</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-09-24T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Why Africa’s Largest Untapped Oil Field Has Yet to Flow</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>The world’s largest oil discovery of 2022, Namibia’s ultra-deepwater Venus remains one of the world’s most technologically complex prospects</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>TotalEnergies Venus project in Namibias Orange Basin is the kind of discovery that makes oil executives eyes light up and governments dream of windfalls. The discovery made in February 2022 was immed… [+7240 chars]</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/australian-market-struggles-closing-top-110613366.html</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Stjepan Kalinic</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-09-25T11:06:13Z</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Australian Market Struggles With Closing Top Deals</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Australia’s inability to close top M&amp;A deals is becoming a growing frustration. The collapse of Abu Dhabi National Oil Company’s (ADNOC) $18.7 billion...</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Australias inability to close top M&amp;amp;A deals is becoming a growing frustration. The collapse of Abu Dhabi National Oil Companys (ADNOC) $18.7 billion takeover bid for Santos (OTCPK: SSLZY) (the na… [+3761 chars]</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/lng_sentiment_score_.xlsx
+++ b/data/lng_sentiment_score_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5606,6 +5606,1111 @@
         <v>-0.802</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-shell-plc-shel-great-032427339.html</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:24:27Z</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Why Shell plc (SHEL) is a Great Option to Invest in LNG</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Shell plc (NYSE:SHEL) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Shell plc (NYSE:SHEL) is the largest trader of LNG in the...</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Shell plc (NYSE:SHEL) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Shell plc (SHEL) is a Great Option to Invest in LNG
+Shell plc (NYSE:SHEL) is the largest trader o… [+1375 chars]</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9246</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-kinder-morgan-kmi-good-032346443.html</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:23:46Z</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Why Kinder Morgan (KMI) is a Good Buy Among the LNG Boom</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. (NYSE:KMI) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Kinder Morgan, Inc. (NYSE:KMI) is the largest LNG...</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. (NYSE:KMI) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Kinder Morgan (KMI) is a Good Buy Among the LNG Boom
+Kinder Morgan, Inc. (NYSE:KMI) is t… [+1647 chars]</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9712</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-chevron-corporation-cvx-good-032216583.html</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:22:16Z</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Why Chevron Corporation (CVX) is a Good Option to Invest in LNG</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Chevron Corporation (NYSE:CVX) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Chevron Corporation (NYSE:CVX) has a strategy of...</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Chevron Corporation (NYSE:CVX) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Chevron Corporation (CVX) is a Good Option to Invest in LNG
+Chevron Corporation (NYSE:CV… [+1759 chars]</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-conocophillips-cop-great-buy-032226332.html</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:22:26Z</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Why ConocoPhillips (COP) is a Great Buy Amidst the LNG Boom</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>ConocoPhillips (NYSE:COP) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. ConocoPhillips (NYSE:COP) has a 60-year history of...</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ConocoPhillips (NYSE:COP) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why ConocoPhillips (COP) is a Great Buy Amidst the LNG Boom
+ConocoPhillips (NYSE:COP) has a 60-ye… [+1482 chars]</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0.9246</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-baker-hughes-bkr-good-032359929.html</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:23:59Z</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Why Baker Hughes (BKR) is a Good Option to Invest in LNG</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Baker Hughes Company (NASDAQ:BKR) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Baker Hughes Company (NASDAQ:BKR) has been...</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Baker Hughes Company (NASDAQ:BKR) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Baker Hughes (BKR) is a Good Option to Invest in LNG
+Baker Hughes Company (NASDAQ:BKR… [+1570 chars]</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-exxon-mobil-xom-good-032155434.html</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:21:55Z</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Why Exxon Mobil (XOM) is a Good Option to Invest in LNG</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Exxon Mobil Corporation (NYSE:XOM) controls a...</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Exxon Mobil (XOM) is a Good Option to Invest in LNG
+Exxon Mobil Corporation (NYSE:XO… [+1450 chars]</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-antero-resources-corporation-ar-032302384.html</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:23:02Z</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Here is Why Antero Resources Corporation (AR) is a Great Option to Invest in LNG</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Antero Resources Corporation (NYSE:AR) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Antero Resources Corporation (NYSE:AR) is...</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Antero Resources Corporation (NYSE:AR) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Here is Why Antero Resources Corporation (AR) is a Great Option to Invest in LNG
+Ant… [+1610 chars]</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9246</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/energy-transfer-et-one-best-032436809.html</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:24:36Z</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Energy Transfer (ET): One of the Best LNG Stocks to Invest in</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Energy Transfer LP (NYSE:ET) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Energy Transfer LP (NYSE:ET) made headlines this...</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Energy Transfer LP (NYSE:ET) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Energy Transfer (ET): One of the Best LNG Stocks to Invest in
+Energy Transfer LP (NYSE:ET) mad… [+1538 chars]</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9638</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-cheniere-energy-lng-good-032204787.html</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:22:04Z</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Why Cheniere Energy (LNG) is a Good Addition to Your Portfolio</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Cheniere Energy, Inc. (NYSE:LNG) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Cheniere Energy, Inc. (NYSE:LNG) is the largest...</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Cheniere Energy, Inc. (NYSE:LNG) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Cheniere Energy (LNG) is a Good Addition to Your Portfolio
+Cheniere Energy, Inc. (NYSE… [+1388 chars]</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0.9468</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_a90fa364-12ca-440f-a7b3-4d295a3fd686</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-10-02T05:53:09Z</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>BMO Capital Highlights Cheniere Energy (LNG) as Core Energy Infrastructure Investment</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+714 chars]</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0.7717000000000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/standard-chartered-bucks-bearish-trend-230000436.html</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Alex Kimani</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-09-28T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Standard Chartered Bucks Bearish Trend, Forecasts Oil Price Gains in 2026</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Wall Street forecasts a surplus and prices in the $50s next year, while Standard Chartered expects stimulus and supply cuts to support a rebound.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>We are in the final innings of the third quarter, and energy markets remain tepid amid bearish sentiment. Brent crude for November delivery was trading at $69.45 per barrel at 8.45 am ET on Friday, m… [+5009 chars]</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.0516</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/bp-p-l-c-bp-032417005.html</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:24:17Z</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>BP p.l.c. (BP): Among the Best LNG Stocks to Buy</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>BP p.l.c. (NYSE:BP) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. BP p.l.c. (NYSE:BP) is a recognized global LNG player with...</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>BP p.l.c. (NYSE:BP) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+BP p.l.c. (BP): Among the Best LNG Stocks to Buy
+BP p.l.c. (NYSE:BP) is a recognized global LNG player … [+1465 chars]</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0.9274</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_85d1a121-14ae-49e2-8e65-19ba6ea1262e</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-10-03T05:24:04Z</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>$7.2 Billion LNG Bombshell: Eni's Giant Bet Could Rewrite Mozambique's Future</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+714 chars]</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5423</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/totalenergies-targets-4-growth-7-090000369.html</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Charles Kennedy</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-09-30T09:00:00Z</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>TotalEnergies Targets 4% Growth, $7.5B Savings Plan, and 40% Payout Policy</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>TotalEnergies outlines growth, cost savings, and shareholder return plans through 2030.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>TotalEnergies (TTE) has confirmed its long-term growth strategy, targeting ~4% annual energy production growth through 2030, a $7.5 billion savings program over 2026–2030, and sustained shareholder r… [+1915 chars]</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/totalenergies-tte-among-best-lng-032513499.html</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:25:13Z</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>TotalEnergies (TTE): Among the Best LNG Stocks to Buy Now</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>TotalEnergies SE (NYSE:TTE) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. TotalEnergies SE (NYSE:TTE) is currently the third...</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>TotalEnergies SE (NYSE:TTE) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+TotalEnergies (TTE): Among the Best LNG Stocks to Buy Now
+TotalEnergies SE (NYSE:TTE) is curren… [+1880 chars]</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9274</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-venture-global-vg-good-032538455.html</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-10-01T03:25:38Z</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Why Venture Global (VG) is a Good Addition to Your Portfolio</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Venture Global, Inc. (NYSE:VG) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds. Merely a startup a few years ago, Venture Global...</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Venture Global, Inc. (NYSE:VG) is included among the 12 Best LNG Stocks to Buy According to Hedge Funds.
+Why Venture Global (VG) is a Great Addition to Your Portfolio
+Merely a startup a few years a… [+1423 chars]</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9042</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/eqt-corporation-eqt-gains-amid-172939338.html</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:29:39Z</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>EQT Corporation (EQT) Gains Amid a Rise in Natural Gas Price</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>The share price of EQT Corporation (NYSE:EQT) surged by 3.39% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the...</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>The share price of EQT Corporation (NYSE:EQT) surged by 3.39% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+EQT Corporation (EQT) Gains… [+1350 chars]</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0.8689</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-peabody-energy-corporation-btu-173201204.html</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:32:01Z</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Here is Why Peabody Energy Corporation (BTU) Soared This Week</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>The share price of Peabody Energy Corporation (NYSE:BTU) surged by 19.44% between September 25 and October 2, 2025, putting it among the Energy Stocks that...</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>The share price of Peabody Energy Corporation (NYSE:BTU) surged by 19.44% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+Here is Why Pea… [+1424 chars]</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0.8442</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/comstock-resources-crk-among-energy-173027825.html</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:30:27Z</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Comstock Resources (CRK): Among the Energy Stocks that Shot Up This Week</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>The share price of Comstock Resources, Inc. (NYSE:CRK) surged by 9.24% between September 25 and October 2, 2025, putting it among the Energy Stocks that...</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>The share price of Comstock Resources, Inc. (NYSE:CRK) surged by 9.24% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+Comstock Resources… [+1332 chars]</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0.7906</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-gulfport-energy-gpor-gained-173001304.html</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:30:01Z</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Here is Why Gulfport Energy (GPOR) Gained This Week</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>The share price of Gulfport Energy Corporation (NYSE:GPOR) surged by 6.08% between September 25 and October 2, 2025, putting it among the Energy Stocks that ...</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>The share price of Gulfport Energy Corporation (NYSE:GPOR) surged by 6.08% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+Here is Why Gu… [+1347 chars]</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0.8934</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/helmerich-payne-hp-among-energy-172950007.html</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:29:50Z</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Helmerich &amp; Payne (HP): Among the Energy Stocks that Gained This Week</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>The share price of Helmerich &amp; Payne, Inc. (NYSE:HP) surged by 4.52% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained...</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>The share price of Helmerich &amp;amp; Payne, Inc. (NYSE:HP) surged by 4.52% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+Helmerich &amp;amp; … [+1276 chars]</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0.8625</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/tamboran-resources-tbn-gained-over-173117970.html</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:31:17Z</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Tamboran Resources (TBN) Gained Over 36% This Week. Here is Why</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>The share price of Tamboran Resources Corporation (NYSE:TBN) surged by 36.88% between September 25 and October 2, 2025, putting it among the Energy Stocks...</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>The share price of Tamboran Resources Corporation (NYSE:TBN) surged by 36.88% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+Tamboran Re… [+1301 chars]</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0.8176</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-energy-leu-soared-10-173132817.html</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-10-03T17:31:32Z</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Centrus Energy (LEU) Soared to a 10-Year High This Week. Here is Why.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>The share price of Centrus Energy Corp. (NYSEAMERICAN:LEU) surged by 11.82% between September 25 and October 2, 2025, putting it among the Energy Stocks that...</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>The share price of Centrus Energy Corp. (NYSEAMERICAN:LEU) surged by 11.82% between September 25 and October 2, 2025, putting it among the Energy Stocks that Gained the Most This Week.
+Centrus Energ… [+1365 chars]</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0.8442</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/sempra-sre-dividend-yield-makes-174703265.html</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Vardah Gill</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-09-30T17:47:03Z</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Sempra’s (SRE) Dividend Yield: What Makes it Stand Out This Month</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Sempra (NYSE:SRE) is included among the Best High Yield Stocks to Buy in October. Sempra (NYSE:SRE) is involved in regulated utilities and building energy...</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sempra (NYSE:SRE) is included among the Best High Yield Stocks to Buy in October.
+Sempras (SRE) Dividend Yield: What Makes it Stand Out This Month
+Sempra (NYSE:SRE) is involved in regulated utiliti… [+1755 chars]</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/josh-brown-says-baker-hughes-203718634.html</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Fahad Saleem</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-10-01T20:37:18Z</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Josh Brown Says Baker Hughes (BKR) Is Among the Best Energy Stocks – ‘Stock is Breaking Out’</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks to Watch as Investors Scramble to Pour Money into AI Trade. Baker Hughes Company (NASDAQ:BKR) is one of the stocks that...</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks to Watch as Investors Scramble to Pour Money into AI Trade. Baker Hughes Company (NASDAQ:BKR) is one of the stocks that caught analysts' attention.
+Josh Brown, CEO of… [+1956 chars]</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/australia-gas-market-still-strained-090000034.html</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Irina Slav</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-10-01T09:00:00Z</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Australia’s Gas Market Still Strained Despite Government Measures</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Australia’s efforts to secure domestic gas supply have failed to ease long-term shortages, with the ACCC warning that government interventions may be...</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Efforts by the Australian government to make sure there is sufficient supply of natural gas for the domestic market have failed to accomplish that goal and may have even aggravated the supply situati… [+2131 chars]</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.3182</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/bp-total-deepen-commitments-us-122844771.html</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sheila Dang, Stephanie Kelly and America Hernandez</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-09-29T12:28:44Z</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>BP and Total deepen commitments to US with major projects</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>HOUSTON/LONDON (Reuters) -European oil and gas majors BP and TotalEnergies on Monday deepened their commitments to the United States, with BP approving a $5 ...</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>By Sheila Dang, Stephanie Kelly and America Hernandez
+HOUSTON/LONDON (Reuters) -European oil and gas majors BP and TotalEnergies on Monday deepened their commitments to the United States, with BP ap… [+2172 chars]</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0.5859</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/wall-street-rediscovers-oil-gas-230000838.html</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Tsvetana Paraskova</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-09-30T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Wall Street Rediscovers Oil and Gas</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>With Trump’s policy reversal and waning ESG enthusiasm, investors are back to backing oil and gas.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Encouraged by the U-turn in the U.S. energy policies under President Trump, investors are back to backing oil and gas majors as the self-righteous ESG hype is waning, especially in corporate America.… [+4817 chars]</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0.5719</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/strs-ohio-backs-archrock-inc-133831546.html</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Rameen Kasana</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-10-02T13:38:31Z</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Strs Ohio Backs Archrock, Inc. (AROC) After Massive Market Outperformance</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Archrock, Inc. (NYSE:AROC) is among the under-the-radar dividend stocks benefiting from AI. During the first quarter, Strs Ohio purchased a new stake in...</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Archrock, Inc. (NYSE:AROC) is among the under-the-radar dividend stocks benefiting from AI. During the first quarter, Strs Ohio purchased a new stake in Archrock, Inc. (NYSE:AROC) through the acquisi… [+1715 chars]</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>-0.0516</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/org-wealth-lifts-cheniere-energy-134900402.html</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Rameen Kasana</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-10-02T13:49:00Z</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ORG Wealth Lifts Cheniere Energy Partners, L.P. (CQP) Position as Dividend Yield Shines at 6.05%</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Cheniere Energy Partners, L.P. (NYSE:CQP) is among the most profitable oil stocks to buy now. During the second quarter, ORG Wealth Partners LLC lifted its...</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Cheniere Energy Partners, L.P. (NYSE:CQP) is among the most profitable oil stocks to buy now. During the second quarter, ORG Wealth Partners LLC lifted its position in Cheniere Energy Partners, L.P. … [+1857 chars]</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0.9312</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/dividend-investors-learn-exxon-mobil-175219094.html</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Vardah Gill</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-10-01T17:52:19Z</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>What Dividend Investors Can Learn from Exxon Mobil Corporation’s (XOM) Track Record</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) is included among the 12 Best Dividend Aristocrat Stocks to Invest in Right Now. Exxon Mobil Corporation (NYSE:XOM) holds ...</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) is included among the 12 Best Dividend Aristocrat Stocks to Invest in Right Now.
+What Dividend Investors Can Learn from Exxon Mobil Corporations (XOM) Track Record… [+1685 chars]</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
